--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2150.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2150.xlsx
@@ -354,7 +354,7 @@
         <v>2.145434120717748</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.873448053887871</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2150.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2150.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222273147534163</v>
+        <v>0.7741817235946655</v>
       </c>
       <c r="B1">
-        <v>2.145434120717748</v>
+        <v>1.44614851474762</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.873448053887871</v>
+        <v>1.85819149017334</v>
       </c>
       <c r="E1">
-        <v>0.7867692496346351</v>
+        <v>1.188699126243591</v>
       </c>
     </row>
   </sheetData>
